--- a/Code/Results/Cases/Case_0_90/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_90/res_line/pl_mw.xlsx
@@ -424,25 +424,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.03871682482491323</v>
+        <v>0.1147919382644886</v>
       </c>
       <c r="D2">
-        <v>0.0290531292926417</v>
+        <v>0.04883252629998935</v>
       </c>
       <c r="E2">
-        <v>0.02450053118574491</v>
+        <v>0.07691568776725166</v>
       </c>
       <c r="F2">
-        <v>2.491188779671688</v>
+        <v>1.68497475861966</v>
       </c>
       <c r="G2">
-        <v>2.742071438459959</v>
+        <v>1.651992108811015</v>
       </c>
       <c r="H2">
-        <v>1.396213136564938</v>
+        <v>1.329248330178615</v>
       </c>
       <c r="I2">
-        <v>1.886878115049512</v>
+        <v>1.501420618137686</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.03094682772051272</v>
+        <v>0.09724694543284329</v>
       </c>
       <c r="M2">
-        <v>3.889202392698195</v>
+        <v>1.598258328719723</v>
       </c>
       <c r="N2">
-        <v>3.492010723602561</v>
+        <v>1.647826646260853</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,25 +471,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.03937183731402882</v>
+        <v>0.1154208897993367</v>
       </c>
       <c r="D3">
-        <v>0.02640024009081188</v>
+        <v>0.04901561773452556</v>
       </c>
       <c r="E3">
-        <v>0.02567003434662851</v>
+        <v>0.0777627994897987</v>
       </c>
       <c r="F3">
-        <v>2.166940520565475</v>
+        <v>1.62426841647131</v>
       </c>
       <c r="G3">
-        <v>2.374728654387752</v>
+        <v>1.58111630897281</v>
       </c>
       <c r="H3">
-        <v>1.232189502336666</v>
+        <v>1.304050679731603</v>
       </c>
       <c r="I3">
-        <v>1.650621110790212</v>
+        <v>1.461805080788452</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.03279143089315362</v>
+        <v>0.09860868902240227</v>
       </c>
       <c r="M3">
-        <v>3.377346657848975</v>
+        <v>1.449215974917067</v>
       </c>
       <c r="N3">
-        <v>3.123359215412535</v>
+        <v>1.527592373724246</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,25 +518,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.03980173349770766</v>
+        <v>0.1158309581009576</v>
       </c>
       <c r="D4">
-        <v>0.02493504429513393</v>
+        <v>0.04916958880606614</v>
       </c>
       <c r="E4">
-        <v>0.02642790779540771</v>
+        <v>0.07831448098534555</v>
       </c>
       <c r="F4">
-        <v>1.974671586604885</v>
+        <v>1.588355854453297</v>
       </c>
       <c r="G4">
-        <v>2.156887698230889</v>
+        <v>1.538998674695506</v>
       </c>
       <c r="H4">
-        <v>1.13545577599416</v>
+        <v>1.289562749411658</v>
       </c>
       <c r="I4">
-        <v>1.511107075698433</v>
+        <v>1.438700112296686</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.03400543758737662</v>
+        <v>0.09949819799485482</v>
       </c>
       <c r="M4">
-        <v>3.065123692896961</v>
+        <v>1.357760496078129</v>
       </c>
       <c r="N4">
-        <v>2.898119705377752</v>
+        <v>1.454045031664094</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,25 +565,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.03998380584944883</v>
+        <v>0.1160040861500349</v>
       </c>
       <c r="D5">
-        <v>0.02437426452048541</v>
+        <v>0.04924269305971407</v>
       </c>
       <c r="E5">
-        <v>0.02674667963705879</v>
+        <v>0.07854724125184553</v>
       </c>
       <c r="F5">
-        <v>1.89781428975995</v>
+        <v>1.574059940776536</v>
       </c>
       <c r="G5">
-        <v>2.069798642938935</v>
+        <v>1.522183227385028</v>
       </c>
       <c r="H5">
-        <v>1.09691528696942</v>
+        <v>1.283904276851018</v>
       </c>
       <c r="I5">
-        <v>1.455475055749503</v>
+        <v>1.42958834623802</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.03452005684649606</v>
+        <v>0.09987411229118415</v>
       </c>
       <c r="M5">
-        <v>2.938300412498606</v>
+        <v>1.320507426216395</v>
       </c>
       <c r="N5">
-        <v>2.806580350659772</v>
+        <v>1.424146867209203</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,25 +612,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.04001445258489866</v>
+        <v>0.1160331980671785</v>
       </c>
       <c r="D6">
-        <v>0.02428320795225147</v>
+        <v>0.04925545509309615</v>
       </c>
       <c r="E6">
-        <v>0.02680020913746617</v>
+        <v>0.07858637115352174</v>
       </c>
       <c r="F6">
-        <v>1.885136378069973</v>
+        <v>1.571706470798588</v>
       </c>
       <c r="G6">
-        <v>2.055432238997781</v>
+        <v>1.519411918256054</v>
       </c>
       <c r="H6">
-        <v>1.090565476263549</v>
+        <v>1.282979464675151</v>
       </c>
       <c r="I6">
-        <v>1.446306395678093</v>
+        <v>1.428093603855018</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.03460669502699787</v>
+        <v>0.09993734402684495</v>
       </c>
       <c r="M6">
-        <v>2.917263363891706</v>
+        <v>1.314322578023763</v>
       </c>
       <c r="N6">
-        <v>2.791394377872678</v>
+        <v>1.419186806126646</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.03980416120581864</v>
+        <v>0.1158332685650532</v>
       </c>
       <c r="D7">
-        <v>0.02492734047901735</v>
+        <v>0.04917053288589202</v>
       </c>
       <c r="E7">
-        <v>0.02643216674769544</v>
+        <v>0.07831758788452792</v>
       </c>
       <c r="F7">
-        <v>1.973629289631631</v>
+        <v>1.588161687883357</v>
       </c>
       <c r="G7">
-        <v>2.155706689441416</v>
+        <v>1.538770492991603</v>
       </c>
       <c r="H7">
-        <v>1.134932595967143</v>
+        <v>1.289485445752206</v>
       </c>
       <c r="I7">
-        <v>1.510352075955041</v>
+        <v>1.438576001931267</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.03401229806750017</v>
+        <v>0.09950321331122858</v>
       </c>
       <c r="M7">
-        <v>3.063411782379205</v>
+        <v>1.3572580223492</v>
       </c>
       <c r="N7">
-        <v>2.896884211720817</v>
+        <v>1.453641514640168</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.03893686548628317</v>
+        <v>0.1150038513541904</v>
       </c>
       <c r="D8">
-        <v>0.02810133396898351</v>
+        <v>0.04888697817437304</v>
       </c>
       <c r="E8">
-        <v>0.02489547288281457</v>
+        <v>0.07720123047155347</v>
       </c>
       <c r="F8">
-        <v>2.377831592502034</v>
+        <v>1.6637584667087</v>
       </c>
       <c r="G8">
-        <v>2.613649077988072</v>
+        <v>1.627260848247602</v>
       </c>
       <c r="H8">
-        <v>1.338755385558045</v>
+        <v>1.320354923021426</v>
       </c>
       <c r="I8">
-        <v>1.804154303922829</v>
+        <v>1.487506400153521</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.03156559474324894</v>
+        <v>0.09770539660343047</v>
       </c>
       <c r="M8">
-        <v>3.712218367755995</v>
+        <v>1.546857457174696</v>
       </c>
       <c r="N8">
-        <v>3.364647666403442</v>
+        <v>1.606314316817191</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,25 +753,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.03746080365239024</v>
+        <v>0.1135662494268352</v>
       </c>
       <c r="D9">
-        <v>0.03587735927561653</v>
+        <v>0.04866471923077853</v>
       </c>
       <c r="E9">
-        <v>0.02220087243559377</v>
+        <v>0.07526186120419265</v>
       </c>
       <c r="F9">
-        <v>3.23598666598653</v>
+        <v>1.822978065962076</v>
       </c>
       <c r="G9">
-        <v>3.586007071405874</v>
+        <v>1.81210829255761</v>
       </c>
       <c r="H9">
-        <v>1.77623763678119</v>
+        <v>1.388782503755863</v>
       </c>
       <c r="I9">
-        <v>2.433292290203525</v>
+        <v>1.593269247417794</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.02744127840275823</v>
+        <v>0.09460324308338031</v>
       </c>
       <c r="M9">
-        <v>5.006523533394869</v>
+        <v>1.919073313275106</v>
       </c>
       <c r="N9">
-        <v>4.292476959710029</v>
+        <v>1.907774923655353</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,25 +800,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.03652227798696828</v>
+        <v>0.1126242532129318</v>
       </c>
       <c r="D10">
-        <v>0.04295369595967458</v>
+        <v>0.0487107069137025</v>
       </c>
       <c r="E10">
-        <v>0.02041932643257383</v>
+        <v>0.07398852252564936</v>
       </c>
       <c r="F10">
-        <v>3.924940729113189</v>
+        <v>1.946902114985164</v>
       </c>
       <c r="G10">
-        <v>4.367134531482606</v>
+        <v>1.955119412023066</v>
       </c>
       <c r="H10">
-        <v>2.130822084875973</v>
+        <v>1.44399912892635</v>
       </c>
       <c r="I10">
-        <v>2.94239789779526</v>
+        <v>1.677155596836329</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.02486377748975599</v>
+        <v>0.09258176220916425</v>
       </c>
       <c r="M10">
-        <v>5.980258016967184</v>
+        <v>2.192766726939936</v>
       </c>
       <c r="N10">
-        <v>4.983349852681329</v>
+        <v>2.130374038076184</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,25 +847,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.03612995103396344</v>
+        <v>0.1122203132440696</v>
       </c>
       <c r="D11">
-        <v>0.04658563179901876</v>
+        <v>0.04877835264119312</v>
       </c>
       <c r="E11">
-        <v>0.01965253209369422</v>
+        <v>0.07344198368700194</v>
       </c>
       <c r="F11">
-        <v>4.256131130676351</v>
+        <v>2.004843344694848</v>
       </c>
       <c r="G11">
-        <v>4.742849636005189</v>
+        <v>2.021810678652628</v>
       </c>
       <c r="H11">
-        <v>2.302109471992708</v>
+        <v>1.470221249066128</v>
       </c>
       <c r="I11">
-        <v>3.188170472401666</v>
+        <v>1.716705012058</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.02379997508460008</v>
+        <v>0.09171800614218384</v>
       </c>
       <c r="M11">
-        <v>6.43080026991629</v>
+        <v>2.317323614499514</v>
       </c>
       <c r="N11">
-        <v>5.300366511005677</v>
+        <v>2.231854144824979</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,25 +894,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.03598671405227805</v>
+        <v>0.1120708706129356</v>
       </c>
       <c r="D12">
-        <v>0.04803248203315036</v>
+        <v>0.04881079352490758</v>
       </c>
       <c r="E12">
-        <v>0.01936847960454546</v>
+        <v>0.07323971528241202</v>
       </c>
       <c r="F12">
-        <v>4.384619134588661</v>
+        <v>2.027014023173791</v>
       </c>
       <c r="G12">
-        <v>4.88865302810774</v>
+        <v>2.047305290251529</v>
       </c>
       <c r="H12">
-        <v>2.368691128036744</v>
+        <v>1.480311908192675</v>
       </c>
       <c r="I12">
-        <v>3.283684131101595</v>
+        <v>1.731884621960319</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.0234137679601254</v>
+        <v>0.09139894781915459</v>
       </c>
       <c r="M12">
-        <v>6.602767549640475</v>
+        <v>2.364496824869036</v>
       </c>
       <c r="N12">
-        <v>5.420874420122004</v>
+        <v>2.270310682055594</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.03601731892606352</v>
+        <v>0.1121028993935269</v>
       </c>
       <c r="D13">
-        <v>0.04771747635114565</v>
+        <v>0.0488035015550139</v>
       </c>
       <c r="E13">
-        <v>0.01942937405859357</v>
+        <v>0.07328306878711288</v>
       </c>
       <c r="F13">
-        <v>4.356800991308063</v>
+        <v>2.022228892367878</v>
       </c>
       <c r="G13">
-        <v>4.857084005278182</v>
+        <v>2.041803811591365</v>
       </c>
       <c r="H13">
-        <v>2.354270052780919</v>
+        <v>1.47813151236835</v>
       </c>
       <c r="I13">
-        <v>3.262997532378591</v>
+        <v>1.728606334191184</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.02349618776658602</v>
+        <v>0.09146730571890416</v>
       </c>
       <c r="M13">
-        <v>6.565666183546625</v>
+        <v>2.354336973621344</v>
       </c>
       <c r="N13">
-        <v>5.394899228608722</v>
+        <v>2.262027174025036</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,25 +988,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.03611805764452747</v>
+        <v>0.1122079480283737</v>
       </c>
       <c r="D14">
-        <v>0.04670315344064591</v>
+        <v>0.04878088417741111</v>
       </c>
       <c r="E14">
-        <v>0.01962903618280354</v>
+        <v>0.07342524892373703</v>
       </c>
       <c r="F14">
-        <v>4.266637019432636</v>
+        <v>2.006662714188423</v>
       </c>
       <c r="G14">
-        <v>4.754770432053647</v>
+        <v>2.023903295294986</v>
       </c>
       <c r="H14">
-        <v>2.307550926848478</v>
+        <v>1.471048176096076</v>
       </c>
       <c r="I14">
-        <v>3.195976842341267</v>
+        <v>1.717949757759328</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.02376786214733428</v>
+        <v>0.09169159614224043</v>
       </c>
       <c r="M14">
-        <v>6.4449192225795</v>
+        <v>2.321204465559333</v>
       </c>
       <c r="N14">
-        <v>5.310271119555182</v>
+        <v>2.235017439863952</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,25 +1035,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.03618046924020391</v>
+        <v>0.112272751437434</v>
       </c>
       <c r="D15">
-        <v>0.04609156673958381</v>
+        <v>0.04876792236027683</v>
       </c>
       <c r="E15">
-        <v>0.01975215838515076</v>
+        <v>0.07351294937612884</v>
       </c>
       <c r="F15">
-        <v>4.211826184736395</v>
+        <v>1.997158005556258</v>
       </c>
       <c r="G15">
-        <v>4.692579542402882</v>
+        <v>2.012970126900484</v>
       </c>
       <c r="H15">
-        <v>2.279167252396746</v>
+        <v>1.466730449086242</v>
       </c>
       <c r="I15">
-        <v>3.155256470309922</v>
+        <v>1.711448847766306</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.02393646803557914</v>
+        <v>0.09183002589763589</v>
       </c>
       <c r="M15">
-        <v>6.371143677247801</v>
+        <v>2.300910619772424</v>
       </c>
       <c r="N15">
-        <v>5.25849609686685</v>
+        <v>2.218476778851027</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,25 +1082,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.03654864167415184</v>
+        <v>0.1126511450543468</v>
       </c>
       <c r="D16">
-        <v>0.04272563301772436</v>
+        <v>0.04870723534868659</v>
       </c>
       <c r="E16">
-        <v>0.02047032027690054</v>
+        <v>0.07402489749944774</v>
       </c>
       <c r="F16">
-        <v>3.903696510272567</v>
+        <v>1.943147418249026</v>
       </c>
       <c r="G16">
-        <v>4.343039373941309</v>
+        <v>1.950794302208067</v>
       </c>
       <c r="H16">
-        <v>2.119852011051989</v>
+        <v>1.442307848937133</v>
       </c>
       <c r="I16">
-        <v>2.926654442989943</v>
+        <v>1.674599187116939</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.02493556999443314</v>
+        <v>0.09263933402030133</v>
       </c>
       <c r="M16">
-        <v>5.950988257482123</v>
+        <v>2.184627582015537</v>
       </c>
       <c r="N16">
-        <v>4.96269264861138</v>
+        <v>2.123746197686387</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,25 +1129,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.03678358744943644</v>
+        <v>0.1128895627356705</v>
       </c>
       <c r="D17">
-        <v>0.04077440735731841</v>
+        <v>0.04868204810234289</v>
       </c>
       <c r="E17">
-        <v>0.02092210098817482</v>
+        <v>0.07434733189870979</v>
       </c>
       <c r="F17">
-        <v>3.719562297343344</v>
+        <v>1.910418112484905</v>
       </c>
       <c r="G17">
-        <v>4.134219244663228</v>
+        <v>1.913073685006452</v>
       </c>
       <c r="H17">
-        <v>2.024860438991055</v>
+        <v>1.427609627131375</v>
       </c>
       <c r="I17">
-        <v>2.790312472667253</v>
+        <v>1.652351262939661</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.02557700809636643</v>
+        <v>0.09315011629501768</v>
       </c>
       <c r="M17">
-        <v>5.695353239559012</v>
+        <v>2.11330416961664</v>
       </c>
       <c r="N17">
-        <v>4.781972378881676</v>
+        <v>2.06568574622986</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,25 +1176,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.03692195375345619</v>
+        <v>0.1130290085779144</v>
       </c>
       <c r="D18">
-        <v>0.03969012450112075</v>
+        <v>0.04867195266700719</v>
       </c>
       <c r="E18">
-        <v>0.02118605938438023</v>
+        <v>0.07453586696080272</v>
       </c>
       <c r="F18">
-        <v>3.615291042631299</v>
+        <v>1.891740373224707</v>
       </c>
       <c r="G18">
-        <v>4.015987824588677</v>
+        <v>1.891531354255164</v>
       </c>
       <c r="H18">
-        <v>1.971144005015191</v>
+        <v>1.419259360446802</v>
       </c>
       <c r="I18">
-        <v>2.713198490465459</v>
+        <v>1.639685389457213</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.02595611332244374</v>
+        <v>0.09344915932705078</v>
       </c>
       <c r="M18">
-        <v>5.549014155224256</v>
+        <v>2.07228583452661</v>
       </c>
       <c r="N18">
-        <v>4.678279767101515</v>
+        <v>2.032311679205634</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,25 +1223,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.03696934818471043</v>
+        <v>0.1130766204449394</v>
       </c>
       <c r="D19">
-        <v>0.03932920088726632</v>
+        <v>0.04866928559422945</v>
       </c>
       <c r="E19">
-        <v>0.02127613485750146</v>
+        <v>0.07460023086224599</v>
       </c>
       <c r="F19">
-        <v>3.580253637709831</v>
+        <v>1.88544158295656</v>
       </c>
       <c r="G19">
-        <v>3.976262463192711</v>
+        <v>1.8842637162399</v>
       </c>
       <c r="H19">
-        <v>1.953106780215478</v>
+        <v>1.416449858837098</v>
       </c>
       <c r="I19">
-        <v>2.687302167846369</v>
+        <v>1.635419262099887</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.02608618935802198</v>
+        <v>0.09355131265295924</v>
       </c>
       <c r="M19">
-        <v>5.499578389554188</v>
+        <v>2.058398631615177</v>
       </c>
       <c r="N19">
-        <v>4.643212764778525</v>
+        <v>2.021015459778539</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,25 +1270,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.03675824038375097</v>
+        <v>0.1128639433442657</v>
       </c>
       <c r="D20">
-        <v>0.04097810425071913</v>
+        <v>0.04868427405266118</v>
       </c>
       <c r="E20">
-        <v>0.0208735828441462</v>
+        <v>0.07431268957784276</v>
       </c>
       <c r="F20">
-        <v>3.738990738874691</v>
+        <v>1.91388692877905</v>
       </c>
       <c r="G20">
-        <v>4.156250313884897</v>
+        <v>1.917073179210746</v>
       </c>
       <c r="H20">
-        <v>2.034875328372777</v>
+        <v>1.429163523285894</v>
       </c>
       <c r="I20">
-        <v>2.804688399184172</v>
+        <v>1.654706057519689</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.02550766678410454</v>
+        <v>0.09309519882443951</v>
       </c>
       <c r="M20">
-        <v>5.722492283399134</v>
+        <v>2.120896160276033</v>
       </c>
       <c r="N20">
-        <v>4.801183726943179</v>
+        <v>2.07186425440824</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,25 +1317,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.03608832027872566</v>
+        <v>0.1121769972573503</v>
       </c>
       <c r="D21">
-        <v>0.04699903475727751</v>
+        <v>0.04878734137103891</v>
       </c>
       <c r="E21">
-        <v>0.01957021894063171</v>
+        <v>0.07338335985342148</v>
       </c>
       <c r="F21">
-        <v>4.293032358247416</v>
+        <v>2.011228613310976</v>
       </c>
       <c r="G21">
-        <v>4.784721329215017</v>
+        <v>2.029154555017953</v>
       </c>
       <c r="H21">
-        <v>2.321224298933544</v>
+        <v>1.473124338945297</v>
       </c>
       <c r="I21">
-        <v>3.215592475818667</v>
+        <v>1.721074313349362</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.02368760489936861</v>
+        <v>0.09162549874846349</v>
       </c>
       <c r="M21">
-        <v>6.480346333606917</v>
+        <v>2.330936127682065</v>
       </c>
       <c r="N21">
-        <v>5.335115363573891</v>
+        <v>2.242950112879271</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,25 +1364,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.0356817977596009</v>
+        <v>0.1117485530589661</v>
       </c>
       <c r="D22">
-        <v>0.05135844218033014</v>
+        <v>0.04889453311061942</v>
       </c>
       <c r="E22">
-        <v>0.01875521215255205</v>
+        <v>0.07280334494511642</v>
       </c>
       <c r="F22">
-        <v>4.673358457209559</v>
+        <v>2.076187262530794</v>
       </c>
       <c r="G22">
-        <v>5.216392595818832</v>
+        <v>2.103807940021284</v>
       </c>
       <c r="H22">
-        <v>2.518560765299867</v>
+        <v>1.502794231680468</v>
       </c>
       <c r="I22">
-        <v>3.498639685300134</v>
+        <v>1.765635253134747</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.02259557941978585</v>
+        <v>0.09071175447650859</v>
       </c>
       <c r="M22">
-        <v>6.983719124385203</v>
+        <v>2.46824507622361</v>
       </c>
       <c r="N22">
-        <v>5.686793496064354</v>
+        <v>2.35492766920936</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,25 +1411,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.03589575528468991</v>
+        <v>0.11197534922443</v>
       </c>
       <c r="D23">
-        <v>0.04898822645171919</v>
+        <v>0.04883364283845992</v>
       </c>
       <c r="E23">
-        <v>0.01918682000334648</v>
+        <v>0.07311040990202677</v>
       </c>
       <c r="F23">
-        <v>4.468506441093098</v>
+        <v>2.041393577744088</v>
       </c>
       <c r="G23">
-        <v>4.98385822319915</v>
+        <v>2.06383409301867</v>
       </c>
       <c r="H23">
-        <v>2.412198115936405</v>
+        <v>1.486872203662472</v>
       </c>
       <c r="I23">
-        <v>3.346090623323946</v>
+        <v>1.741742648787437</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.02316913353276462</v>
+        <v>0.09119515573366499</v>
       </c>
       <c r="M23">
-        <v>6.714218984426452</v>
+        <v>2.394957859694216</v>
       </c>
       <c r="N23">
-        <v>5.498822339072319</v>
+        <v>2.295149267256704</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,25 +1458,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.0367696895599483</v>
+        <v>0.1128755184691101</v>
       </c>
       <c r="D24">
-        <v>0.0408858969555439</v>
+        <v>0.04868325404933671</v>
       </c>
       <c r="E24">
-        <v>0.02089550474470148</v>
+        <v>0.07432834151753021</v>
       </c>
       <c r="F24">
-        <v>3.730202225771649</v>
+        <v>1.912318244995731</v>
       </c>
       <c r="G24">
-        <v>4.146284435814522</v>
+        <v>1.915264560494393</v>
       </c>
       <c r="H24">
-        <v>2.030344828302191</v>
+        <v>1.428460695718684</v>
       </c>
       <c r="I24">
-        <v>2.798185114080724</v>
+        <v>1.653641066560681</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.02553898387797915</v>
+        <v>0.0931200102323082</v>
       </c>
       <c r="M24">
-        <v>5.710220782162054</v>
+        <v>2.117463863419545</v>
       </c>
       <c r="N24">
-        <v>4.79249764018283</v>
+        <v>2.069070932986278</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,25 +1505,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.03783528349340415</v>
+        <v>0.1139350345970129</v>
       </c>
       <c r="D25">
-        <v>0.03356864326543985</v>
+        <v>0.04868851898792315</v>
       </c>
       <c r="E25">
-        <v>0.02289528379905637</v>
+        <v>0.07575984874644881</v>
       </c>
       <c r="F25">
-        <v>2.995073609695908</v>
+        <v>1.778703923253801</v>
       </c>
       <c r="G25">
-        <v>3.312983260662008</v>
+        <v>1.760859342914756</v>
       </c>
       <c r="H25">
-        <v>1.65288780408585</v>
+        <v>1.369412631883733</v>
       </c>
       <c r="I25">
-        <v>2.256047616912738</v>
+        <v>1.563586662540928</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.02848080332453939</v>
+        <v>0.0953971791133128</v>
       </c>
       <c r="M25">
-        <v>4.653144907221645</v>
+        <v>1.818337707854283</v>
       </c>
       <c r="N25">
-        <v>4.040080157587056</v>
+        <v>1.826015578159428</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_90/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_90/res_line/pl_mw.xlsx
@@ -424,25 +424,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1147919382644886</v>
+        <v>0.03871682482490257</v>
       </c>
       <c r="D2">
-        <v>0.04883252629998935</v>
+        <v>0.02905312929262038</v>
       </c>
       <c r="E2">
-        <v>0.07691568776725166</v>
+        <v>0.02450053118579643</v>
       </c>
       <c r="F2">
-        <v>1.68497475861966</v>
+        <v>2.491188779671717</v>
       </c>
       <c r="G2">
-        <v>1.651992108811015</v>
+        <v>2.742071438459874</v>
       </c>
       <c r="H2">
-        <v>1.329248330178615</v>
+        <v>1.39621313656491</v>
       </c>
       <c r="I2">
-        <v>1.501420618137686</v>
+        <v>1.886878115049498</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.09724694543284329</v>
+        <v>0.03094682772043456</v>
       </c>
       <c r="M2">
-        <v>1.598258328719723</v>
+        <v>3.889202392698181</v>
       </c>
       <c r="N2">
-        <v>1.647826646260853</v>
+        <v>3.492010723602561</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,25 +471,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1154208897993367</v>
+        <v>0.03937183731404303</v>
       </c>
       <c r="D3">
-        <v>0.04901561773452556</v>
+        <v>0.02640024009081543</v>
       </c>
       <c r="E3">
-        <v>0.0777627994897987</v>
+        <v>0.02567003434658943</v>
       </c>
       <c r="F3">
-        <v>1.62426841647131</v>
+        <v>2.166940520565475</v>
       </c>
       <c r="G3">
-        <v>1.58111630897281</v>
+        <v>2.374728654387809</v>
       </c>
       <c r="H3">
-        <v>1.304050679731603</v>
+        <v>1.232189502336524</v>
       </c>
       <c r="I3">
-        <v>1.461805080788452</v>
+        <v>1.650621110790226</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.09860868902240227</v>
+        <v>0.0327914308932673</v>
       </c>
       <c r="M3">
-        <v>1.449215974917067</v>
+        <v>3.377346657848989</v>
       </c>
       <c r="N3">
-        <v>1.527592373724246</v>
+        <v>3.123359215412648</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,25 +518,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1158309581009576</v>
+        <v>0.03980173349748206</v>
       </c>
       <c r="D4">
-        <v>0.04916958880606614</v>
+        <v>0.02493504429511972</v>
       </c>
       <c r="E4">
-        <v>0.07831448098534555</v>
+        <v>0.02642790779536774</v>
       </c>
       <c r="F4">
-        <v>1.588355854453297</v>
+        <v>1.974671586604885</v>
       </c>
       <c r="G4">
-        <v>1.538998674695506</v>
+        <v>2.156887698230832</v>
       </c>
       <c r="H4">
-        <v>1.289562749411658</v>
+        <v>1.135455775994274</v>
       </c>
       <c r="I4">
-        <v>1.438700112296686</v>
+        <v>1.511107075698462</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.09949819799485482</v>
+        <v>0.03400543758753116</v>
       </c>
       <c r="M4">
-        <v>1.357760496078129</v>
+        <v>3.065123692896947</v>
       </c>
       <c r="N4">
-        <v>1.454045031664094</v>
+        <v>2.898119705377752</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,25 +565,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1160040861500349</v>
+        <v>0.03998380584988226</v>
       </c>
       <c r="D5">
-        <v>0.04924269305971407</v>
+        <v>0.02437426452048186</v>
       </c>
       <c r="E5">
-        <v>0.07854724125184553</v>
+        <v>0.02674667963706323</v>
       </c>
       <c r="F5">
-        <v>1.574059940776536</v>
+        <v>1.897814289759935</v>
       </c>
       <c r="G5">
-        <v>1.522183227385028</v>
+        <v>2.069798642939077</v>
       </c>
       <c r="H5">
-        <v>1.283904276851018</v>
+        <v>1.096915286969534</v>
       </c>
       <c r="I5">
-        <v>1.42958834623802</v>
+        <v>1.455475055749503</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.09987411229118415</v>
+        <v>0.03452005684645343</v>
       </c>
       <c r="M5">
-        <v>1.320507426216395</v>
+        <v>2.938300412498606</v>
       </c>
       <c r="N5">
-        <v>1.424146867209203</v>
+        <v>2.806580350659658</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,25 +612,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1160331980671785</v>
+        <v>0.0400144525844901</v>
       </c>
       <c r="D6">
-        <v>0.04925545509309615</v>
+        <v>0.02428320795214844</v>
       </c>
       <c r="E6">
-        <v>0.07858637115352174</v>
+        <v>0.0268002091374786</v>
       </c>
       <c r="F6">
-        <v>1.571706470798588</v>
+        <v>1.885136378069973</v>
       </c>
       <c r="G6">
-        <v>1.519411918256054</v>
+        <v>2.055432238997838</v>
       </c>
       <c r="H6">
-        <v>1.282979464675151</v>
+        <v>1.090565476263663</v>
       </c>
       <c r="I6">
-        <v>1.428093603855018</v>
+        <v>1.446306395678093</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.09993734402684495</v>
+        <v>0.03460669502699432</v>
       </c>
       <c r="M6">
-        <v>1.314322578023763</v>
+        <v>2.917263363891706</v>
       </c>
       <c r="N6">
-        <v>1.419186806126646</v>
+        <v>2.791394377872706</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1158332685650532</v>
+        <v>0.03980416120604069</v>
       </c>
       <c r="D7">
-        <v>0.04917053288589202</v>
+        <v>0.02492734047900313</v>
       </c>
       <c r="E7">
-        <v>0.07831758788452792</v>
+        <v>0.02643216674768034</v>
       </c>
       <c r="F7">
-        <v>1.588161687883357</v>
+        <v>1.973629289631631</v>
       </c>
       <c r="G7">
-        <v>1.538770492991603</v>
+        <v>2.155706689441473</v>
       </c>
       <c r="H7">
-        <v>1.289485445752206</v>
+        <v>1.134932595967257</v>
       </c>
       <c r="I7">
-        <v>1.438576001931267</v>
+        <v>1.510352075955041</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.09950321331122858</v>
+        <v>0.0340122980675357</v>
       </c>
       <c r="M7">
-        <v>1.3572580223492</v>
+        <v>3.06341178237922</v>
       </c>
       <c r="N7">
-        <v>1.453641514640168</v>
+        <v>2.89688421172076</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1150038513541904</v>
+        <v>0.03893686548651054</v>
       </c>
       <c r="D8">
-        <v>0.04888697817437304</v>
+        <v>0.02810133396909009</v>
       </c>
       <c r="E8">
-        <v>0.07720123047155347</v>
+        <v>0.02489547288275951</v>
       </c>
       <c r="F8">
-        <v>1.6637584667087</v>
+        <v>2.377831592502034</v>
       </c>
       <c r="G8">
-        <v>1.627260848247602</v>
+        <v>2.613649077988015</v>
       </c>
       <c r="H8">
-        <v>1.320354923021426</v>
+        <v>1.338755385558045</v>
       </c>
       <c r="I8">
-        <v>1.487506400153521</v>
+        <v>1.804154303922815</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.09770539660343047</v>
+        <v>0.03156559474325427</v>
       </c>
       <c r="M8">
-        <v>1.546857457174696</v>
+        <v>3.712218367756023</v>
       </c>
       <c r="N8">
-        <v>1.606314316817191</v>
+        <v>3.364647666403556</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,25 +753,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1135662494268352</v>
+        <v>0.03746080365238846</v>
       </c>
       <c r="D9">
-        <v>0.04866471923077853</v>
+        <v>0.03587735927550284</v>
       </c>
       <c r="E9">
-        <v>0.07526186120419265</v>
+        <v>0.02220087243559199</v>
       </c>
       <c r="F9">
-        <v>1.822978065962076</v>
+        <v>3.235986665986559</v>
       </c>
       <c r="G9">
-        <v>1.81210829255761</v>
+        <v>3.586007071405874</v>
       </c>
       <c r="H9">
-        <v>1.388782503755863</v>
+        <v>1.77623763678119</v>
       </c>
       <c r="I9">
-        <v>1.593269247417794</v>
+        <v>2.433292290203525</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.09460324308338031</v>
+        <v>0.0274412784026925</v>
       </c>
       <c r="M9">
-        <v>1.919073313275106</v>
+        <v>5.006523533394841</v>
       </c>
       <c r="N9">
-        <v>1.907774923655353</v>
+        <v>4.292476959710029</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,25 +800,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1126242532129318</v>
+        <v>0.03652227798746033</v>
       </c>
       <c r="D10">
-        <v>0.0487107069137025</v>
+        <v>0.04295369595989484</v>
       </c>
       <c r="E10">
-        <v>0.07398852252564936</v>
+        <v>0.02041932643260136</v>
       </c>
       <c r="F10">
-        <v>1.946902114985164</v>
+        <v>3.92494072911316</v>
       </c>
       <c r="G10">
-        <v>1.955119412023066</v>
+        <v>4.367134531482634</v>
       </c>
       <c r="H10">
-        <v>1.44399912892635</v>
+        <v>2.130822084875859</v>
       </c>
       <c r="I10">
-        <v>1.677155596836329</v>
+        <v>2.942397897795246</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.09258176220916425</v>
+        <v>0.02486377748954993</v>
       </c>
       <c r="M10">
-        <v>2.192766726939936</v>
+        <v>5.980258016967156</v>
       </c>
       <c r="N10">
-        <v>2.130374038076184</v>
+        <v>4.983349852681442</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,25 +847,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1122203132440696</v>
+        <v>0.03612995103397409</v>
       </c>
       <c r="D11">
-        <v>0.04877835264119312</v>
+        <v>0.04658563179903297</v>
       </c>
       <c r="E11">
-        <v>0.07344198368700194</v>
+        <v>0.01965253209365336</v>
       </c>
       <c r="F11">
-        <v>2.004843344694848</v>
+        <v>4.256131130676351</v>
       </c>
       <c r="G11">
-        <v>2.021810678652628</v>
+        <v>4.742849636005246</v>
       </c>
       <c r="H11">
-        <v>1.470221249066128</v>
+        <v>2.302109471992708</v>
       </c>
       <c r="I11">
-        <v>1.716705012058</v>
+        <v>3.188170472401666</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.09171800614218384</v>
+        <v>0.02379997508447573</v>
       </c>
       <c r="M11">
-        <v>2.317323614499514</v>
+        <v>6.430800269916318</v>
       </c>
       <c r="N11">
-        <v>2.231854144824979</v>
+        <v>5.300366511005677</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,25 +894,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1120708706129356</v>
+        <v>0.03598671405278786</v>
       </c>
       <c r="D12">
-        <v>0.04881079352490758</v>
+        <v>0.04803248203295141</v>
       </c>
       <c r="E12">
-        <v>0.07323971528241202</v>
+        <v>0.01936847960451171</v>
       </c>
       <c r="F12">
-        <v>2.027014023173791</v>
+        <v>4.384619134588661</v>
       </c>
       <c r="G12">
-        <v>2.047305290251529</v>
+        <v>4.888653028107626</v>
       </c>
       <c r="H12">
-        <v>1.480311908192675</v>
+        <v>2.368691128036801</v>
       </c>
       <c r="I12">
-        <v>1.731884621960319</v>
+        <v>3.283684131101595</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.09139894781915459</v>
+        <v>0.02341376796021066</v>
       </c>
       <c r="M12">
-        <v>2.364496824869036</v>
+        <v>6.602767549640504</v>
       </c>
       <c r="N12">
-        <v>2.270310682055594</v>
+        <v>5.420874420122061</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1121028993935269</v>
+        <v>0.03601731892656268</v>
       </c>
       <c r="D13">
-        <v>0.0488035015550139</v>
+        <v>0.04771747635142276</v>
       </c>
       <c r="E13">
-        <v>0.07328306878711288</v>
+        <v>0.01942937405854028</v>
       </c>
       <c r="F13">
-        <v>2.022228892367878</v>
+        <v>4.356800991308091</v>
       </c>
       <c r="G13">
-        <v>2.041803811591365</v>
+        <v>4.857084005278239</v>
       </c>
       <c r="H13">
-        <v>1.47813151236835</v>
+        <v>2.354270052780862</v>
       </c>
       <c r="I13">
-        <v>1.728606334191184</v>
+        <v>3.262997532378606</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.09146730571890416</v>
+        <v>0.02349618776654694</v>
       </c>
       <c r="M13">
-        <v>2.354336973621344</v>
+        <v>6.565666183546654</v>
       </c>
       <c r="N13">
-        <v>2.262027174025036</v>
+        <v>5.394899228608836</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,25 +988,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1122079480283737</v>
+        <v>0.03611805764480636</v>
       </c>
       <c r="D14">
-        <v>0.04878088417741111</v>
+        <v>0.04670315344042564</v>
       </c>
       <c r="E14">
-        <v>0.07342524892373703</v>
+        <v>0.01962903618282574</v>
       </c>
       <c r="F14">
-        <v>2.006662714188423</v>
+        <v>4.266637019432665</v>
       </c>
       <c r="G14">
-        <v>2.023903295294986</v>
+        <v>4.754770432053704</v>
       </c>
       <c r="H14">
-        <v>1.471048176096076</v>
+        <v>2.307550926848421</v>
       </c>
       <c r="I14">
-        <v>1.717949757759328</v>
+        <v>3.195976842341267</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.09169159614224043</v>
+        <v>0.02376786214717796</v>
       </c>
       <c r="M14">
-        <v>2.321204465559333</v>
+        <v>6.444919222579529</v>
       </c>
       <c r="N14">
-        <v>2.235017439863952</v>
+        <v>5.310271119555011</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,25 +1035,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.112272751437434</v>
+        <v>0.03618046924041707</v>
       </c>
       <c r="D15">
-        <v>0.04876792236027683</v>
+        <v>0.04609156673978987</v>
       </c>
       <c r="E15">
-        <v>0.07351294937612884</v>
+        <v>0.01975215838511257</v>
       </c>
       <c r="F15">
-        <v>1.997158005556258</v>
+        <v>4.211826184736452</v>
       </c>
       <c r="G15">
-        <v>2.012970126900484</v>
+        <v>4.692579542402996</v>
       </c>
       <c r="H15">
-        <v>1.466730449086242</v>
+        <v>2.279167252396917</v>
       </c>
       <c r="I15">
-        <v>1.711448847766306</v>
+        <v>3.155256470309951</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.09183002589763589</v>
+        <v>0.02393646803581362</v>
       </c>
       <c r="M15">
-        <v>2.300910619772424</v>
+        <v>6.371143677247773</v>
       </c>
       <c r="N15">
-        <v>2.218476778851027</v>
+        <v>5.25849609686685</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,25 +1082,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1126511450543468</v>
+        <v>0.03654864167437566</v>
       </c>
       <c r="D16">
-        <v>0.04870723534868659</v>
+        <v>0.04272563301748988</v>
       </c>
       <c r="E16">
-        <v>0.07402489749944774</v>
+        <v>0.02047032027690587</v>
       </c>
       <c r="F16">
-        <v>1.943147418249026</v>
+        <v>3.903696510272596</v>
       </c>
       <c r="G16">
-        <v>1.950794302208067</v>
+        <v>4.343039373941281</v>
       </c>
       <c r="H16">
-        <v>1.442307848937133</v>
+        <v>2.119852011051989</v>
       </c>
       <c r="I16">
-        <v>1.674599187116939</v>
+        <v>2.926654442989914</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.09263933402030133</v>
+        <v>0.02493556999443314</v>
       </c>
       <c r="M16">
-        <v>2.184627582015537</v>
+        <v>5.95098825748218</v>
       </c>
       <c r="N16">
-        <v>2.123746197686387</v>
+        <v>4.96269264861138</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,25 +1129,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1128895627356705</v>
+        <v>0.03678358744916643</v>
       </c>
       <c r="D17">
-        <v>0.04868204810234289</v>
+        <v>0.04077440735732552</v>
       </c>
       <c r="E17">
-        <v>0.07434733189870979</v>
+        <v>0.0209221009881766</v>
       </c>
       <c r="F17">
-        <v>1.910418112484905</v>
+        <v>3.719562297343288</v>
       </c>
       <c r="G17">
-        <v>1.913073685006452</v>
+        <v>4.134219244663257</v>
       </c>
       <c r="H17">
-        <v>1.427609627131375</v>
+        <v>2.024860438991027</v>
       </c>
       <c r="I17">
-        <v>1.652351262939661</v>
+        <v>2.790312472667253</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.09315011629501768</v>
+        <v>0.02557700809637709</v>
       </c>
       <c r="M17">
-        <v>2.11330416961664</v>
+        <v>5.695353239559012</v>
       </c>
       <c r="N17">
-        <v>2.06568574622986</v>
+        <v>4.781972378881676</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,25 +1176,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1130290085779144</v>
+        <v>0.03692195375398022</v>
       </c>
       <c r="D18">
-        <v>0.04867195266700719</v>
+        <v>0.03969012450088627</v>
       </c>
       <c r="E18">
-        <v>0.07453586696080272</v>
+        <v>0.02118605938437668</v>
       </c>
       <c r="F18">
-        <v>1.891740373224707</v>
+        <v>3.615291042631355</v>
       </c>
       <c r="G18">
-        <v>1.891531354255164</v>
+        <v>4.015987824588677</v>
       </c>
       <c r="H18">
-        <v>1.419259360446802</v>
+        <v>1.971144005015191</v>
       </c>
       <c r="I18">
-        <v>1.639685389457213</v>
+        <v>2.713198490465459</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.09344915932705078</v>
+        <v>0.02595611332242953</v>
       </c>
       <c r="M18">
-        <v>2.07228583452661</v>
+        <v>5.549014155224228</v>
       </c>
       <c r="N18">
-        <v>2.032311679205634</v>
+        <v>4.678279767101515</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,25 +1223,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1130766204449394</v>
+        <v>0.0369693481849378</v>
       </c>
       <c r="D19">
-        <v>0.04866928559422945</v>
+        <v>0.03932920088739422</v>
       </c>
       <c r="E19">
-        <v>0.07460023086224599</v>
+        <v>0.02127613485750679</v>
       </c>
       <c r="F19">
-        <v>1.88544158295656</v>
+        <v>3.580253637709831</v>
       </c>
       <c r="G19">
-        <v>1.8842637162399</v>
+        <v>3.976262463192711</v>
       </c>
       <c r="H19">
-        <v>1.416449858837098</v>
+        <v>1.95310678021545</v>
       </c>
       <c r="I19">
-        <v>1.635419262099887</v>
+        <v>2.687302167846326</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.09355131265295924</v>
+        <v>0.02608618935798646</v>
       </c>
       <c r="M19">
-        <v>2.058398631615177</v>
+        <v>5.499578389554159</v>
       </c>
       <c r="N19">
-        <v>2.021015459778539</v>
+        <v>4.643212764778525</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,25 +1270,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1128639433442657</v>
+        <v>0.03675824038375275</v>
       </c>
       <c r="D20">
-        <v>0.04868427405266118</v>
+        <v>0.04097810425098913</v>
       </c>
       <c r="E20">
-        <v>0.07431268957784276</v>
+        <v>0.02087358284414442</v>
       </c>
       <c r="F20">
-        <v>1.91388692877905</v>
+        <v>3.738990738874691</v>
       </c>
       <c r="G20">
-        <v>1.917073179210746</v>
+        <v>4.156250313884954</v>
       </c>
       <c r="H20">
-        <v>1.429163523285894</v>
+        <v>2.034875328372806</v>
       </c>
       <c r="I20">
-        <v>1.654706057519689</v>
+        <v>2.804688399184187</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.09309519882443951</v>
+        <v>0.02550766678427507</v>
       </c>
       <c r="M20">
-        <v>2.120896160276033</v>
+        <v>5.722492283399106</v>
       </c>
       <c r="N20">
-        <v>2.07186425440824</v>
+        <v>4.801183726943179</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,25 +1317,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1121769972573503</v>
+        <v>0.03608832027852671</v>
       </c>
       <c r="D21">
-        <v>0.04878734137103891</v>
+        <v>0.04699903475716383</v>
       </c>
       <c r="E21">
-        <v>0.07338335985342148</v>
+        <v>0.01957021894061395</v>
       </c>
       <c r="F21">
-        <v>2.011228613310976</v>
+        <v>4.293032358247359</v>
       </c>
       <c r="G21">
-        <v>2.029154555017953</v>
+        <v>4.784721329214904</v>
       </c>
       <c r="H21">
-        <v>1.473124338945297</v>
+        <v>2.321224298933544</v>
       </c>
       <c r="I21">
-        <v>1.721074313349362</v>
+        <v>3.215592475818625</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.09162549874846349</v>
+        <v>0.02368760489941479</v>
       </c>
       <c r="M21">
-        <v>2.330936127682065</v>
+        <v>6.48034633360686</v>
       </c>
       <c r="N21">
-        <v>2.242950112879271</v>
+        <v>5.335115363574005</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,25 +1364,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1117485530589661</v>
+        <v>0.03568179775931313</v>
       </c>
       <c r="D22">
-        <v>0.04889453311061942</v>
+        <v>0.05135844217997487</v>
       </c>
       <c r="E22">
-        <v>0.07280334494511642</v>
+        <v>0.0187552121525556</v>
       </c>
       <c r="F22">
-        <v>2.076187262530794</v>
+        <v>4.673358457209503</v>
       </c>
       <c r="G22">
-        <v>2.103807940021284</v>
+        <v>5.216392595818661</v>
       </c>
       <c r="H22">
-        <v>1.502794231680468</v>
+        <v>2.518560765299753</v>
       </c>
       <c r="I22">
-        <v>1.765635253134747</v>
+        <v>3.49863968530012</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.09071175447650859</v>
+        <v>0.02259557941983203</v>
       </c>
       <c r="M22">
-        <v>2.46824507622361</v>
+        <v>6.983719124385232</v>
       </c>
       <c r="N22">
-        <v>2.35492766920936</v>
+        <v>5.686793496064467</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,25 +1411,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.11197534922443</v>
+        <v>0.03589575528469169</v>
       </c>
       <c r="D23">
-        <v>0.04883364283845992</v>
+        <v>0.04898822645150602</v>
       </c>
       <c r="E23">
-        <v>0.07311040990202677</v>
+        <v>0.01918682000334737</v>
       </c>
       <c r="F23">
-        <v>2.041393577744088</v>
+        <v>4.468506441093069</v>
       </c>
       <c r="G23">
-        <v>2.06383409301867</v>
+        <v>4.98385822319915</v>
       </c>
       <c r="H23">
-        <v>1.486872203662472</v>
+        <v>2.412198115936519</v>
       </c>
       <c r="I23">
-        <v>1.741742648787437</v>
+        <v>3.346090623323946</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.09119515573366499</v>
+        <v>0.02316913353259764</v>
       </c>
       <c r="M23">
-        <v>2.394957859694216</v>
+        <v>6.714218984426509</v>
       </c>
       <c r="N23">
-        <v>2.295149267256704</v>
+        <v>5.498822339072206</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,25 +1458,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1128755184691101</v>
+        <v>0.03676968955995719</v>
       </c>
       <c r="D24">
-        <v>0.04868325404933671</v>
+        <v>0.04088589695558653</v>
       </c>
       <c r="E24">
-        <v>0.07432834151753021</v>
+        <v>0.02089550474467927</v>
       </c>
       <c r="F24">
-        <v>1.912318244995731</v>
+        <v>3.730202225771649</v>
       </c>
       <c r="G24">
-        <v>1.915264560494393</v>
+        <v>4.146284435814579</v>
       </c>
       <c r="H24">
-        <v>1.428460695718684</v>
+        <v>2.030344828302191</v>
       </c>
       <c r="I24">
-        <v>1.653641066560681</v>
+        <v>2.798185114080709</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.0931200102323082</v>
+        <v>0.02553898387805731</v>
       </c>
       <c r="M24">
-        <v>2.117463863419545</v>
+        <v>5.710220782162054</v>
       </c>
       <c r="N24">
-        <v>2.069070932986278</v>
+        <v>4.792497640182887</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,25 +1505,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1139350345970129</v>
+        <v>0.03783528349340237</v>
       </c>
       <c r="D25">
-        <v>0.04868851898792315</v>
+        <v>0.03356864326531905</v>
       </c>
       <c r="E25">
-        <v>0.07575984874644881</v>
+        <v>0.02289528379905281</v>
       </c>
       <c r="F25">
-        <v>1.778703923253801</v>
+        <v>2.995073609695908</v>
       </c>
       <c r="G25">
-        <v>1.760859342914756</v>
+        <v>3.312983260662008</v>
       </c>
       <c r="H25">
-        <v>1.369412631883733</v>
+        <v>1.65288780408585</v>
       </c>
       <c r="I25">
-        <v>1.563586662540928</v>
+        <v>2.256047616912724</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.0953971791133128</v>
+        <v>0.02848080332453762</v>
       </c>
       <c r="M25">
-        <v>1.818337707854283</v>
+        <v>4.653144907221602</v>
       </c>
       <c r="N25">
-        <v>1.826015578159428</v>
+        <v>4.040080157587056</v>
       </c>
       <c r="O25">
         <v>0</v>
